--- a/tests/testthat/test_data/24/noName.xlsx
+++ b/tests/testthat/test_data/24/noName.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB492C5-5DDE-BB4C-835B-5FF75BA44480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{283FEF09-9B0B-7A4E-94E7-31DD6A60D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>full</t>
   </si>
@@ -28,85 +28,85 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,73 +983,73 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1095,67 +1095,67 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1171,6 +1171,9 @@
       </c>
       <c r="F11" t="s">
         <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
